--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6CB47-07DB-634D-8491-9B4976545258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F82F25-84CE-8A46-AD12-BEA86E2D27E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="776">
   <si>
     <t>Screening</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>study_version</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
     <t>Design approval date</t>
   </si>
   <si>
@@ -1656,9 +1653,6 @@
   </si>
   <si>
     <t>IRB/IEC Feedback</t>
-  </si>
-  <si>
-    <t>Region: Europe=15, Country: USA=20%</t>
   </si>
   <si>
     <t>Other=Fix typographical errors</t>
@@ -2406,6 +2400,15 @@
   </si>
   <si>
     <t>Automatic execution</t>
+  </si>
+  <si>
+    <t>D_APPROVE</t>
+  </si>
+  <si>
+    <t>P_APPROVE</t>
+  </si>
+  <si>
+    <t>Region: Europe=15</t>
   </si>
 </sst>
 </file>
@@ -2963,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2983,7 +2986,7 @@
         <v>233</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3148,45 +3151,45 @@
         <v>511</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C17" t="s">
         <v>512</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>513</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>514</v>
-      </c>
-      <c r="E17" t="s">
-        <v>515</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" t="s">
         <v>516</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>517</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>518</v>
-      </c>
-      <c r="E18" t="s">
-        <v>519</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -3217,13 +3220,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3231,7 +3234,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3245,13 +3248,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,38 +3264,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,7 +3322,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>209</v>
@@ -3364,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3383,7 +3386,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3393,7 +3396,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3455,10 +3458,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3644,22 +3647,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3667,7 +3670,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3679,22 +3682,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3704,56 +3707,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3770,10 +3773,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3782,10 +3785,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3794,10 +3797,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3806,10 +3809,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -3975,620 +3978,620 @@
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>541</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>542</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4626,10 +4629,10 @@
         <v>508</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4657,18 +4660,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4703,10 +4706,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4756,7 +4759,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4766,10 +4769,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,39 +4807,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C34" t="s">
         <v>755</v>
-      </c>
-      <c r="C34" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C36" t="s">
         <v>756</v>
-      </c>
-      <c r="C36" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +4882,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C2" t="s">
         <v>226</v>
@@ -4893,7 +4896,7 @@
         <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
         <v>226</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>206</v>
@@ -4996,34 +4999,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>615</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>616</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -5036,11 +5039,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -5082,10 +5085,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -5144,11 +5147,11 @@
         <v>179</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
@@ -5497,25 +5500,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -5558,10 +5561,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -5593,7 +5596,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5722,7 +5725,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5742,7 +5745,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5762,7 +5765,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5782,7 +5785,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5839,7 +5842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5853,22 +5858,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>527</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5876,19 +5881,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>533</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>532</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +5988,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>183</v>
@@ -5997,7 +6002,7 @@
         <v>190</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>189</v>
@@ -6011,7 +6016,7 @@
         <v>187</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>191</v>
@@ -6025,7 +6030,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>193</v>
@@ -6069,36 +6074,36 @@
         <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" t="s">
         <v>605</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>606</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>607</v>
-      </c>
-      <c r="E2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F2" t="s">
-        <v>609</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -6106,13 +6111,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -6120,13 +6125,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -6134,22 +6139,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" t="s">
         <v>708</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>709</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" t="s">
         <v>710</v>
-      </c>
-      <c r="D5" t="s">
-        <v>711</v>
-      </c>
-      <c r="E5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F5" t="s">
-        <v>712</v>
       </c>
       <c r="G5" t="s">
         <v>508</v>
@@ -6199,7 +6204,7 @@
         <v>506</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6275,7 +6280,7 @@
         <v>503</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6312,7 +6317,7 @@
         <v>259</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6324,7 +6329,7 @@
         <v>261</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6381,7 +6386,7 @@
         <v>273</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6402,7 +6407,7 @@
         <v>277</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6414,7 +6419,7 @@
         <v>279</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6444,7 +6449,7 @@
         <v>285</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7531,24 +7536,24 @@
         <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" t="s">
         <v>534</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>535</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>536</v>
-      </c>
-      <c r="D3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7653,7 +7658,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -7689,7 +7694,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -7725,7 +7730,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -7826,7 +7831,7 @@
         <v>507</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>233</v>
@@ -7841,84 +7846,84 @@
         <v>235</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>599</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>717</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>721</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>726</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>727</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -7957,10 +7962,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8080,7 +8085,7 @@
         <v>222</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -8094,7 +8099,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -8108,7 +8113,7 @@
         <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -8122,7 +8127,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>225</v>
@@ -8172,52 +8177,52 @@
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>639</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8290,13 +8295,13 @@
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>144</v>
@@ -8311,25 +8316,25 @@
         <v>213</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>157</v>
@@ -8345,121 +8350,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>641</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8514,7 +8519,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -8799,7 +8804,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -8854,7 +8859,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9239,10 +9244,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9519,7 +9524,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9686,7 +9691,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9795,7 +9800,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9907,7 +9912,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10701,13 +10706,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -10715,7 +10720,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10729,13 +10734,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10745,38 +10750,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F82F25-84CE-8A46-AD12-BEA86E2D27E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4B4FD7-F522-4D4F-9962-C145BDACFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -26,16 +26,17 @@
     <sheet name="vsBloodPressure" sheetId="24" r:id="rId11"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId12"/>
     <sheet name="studyDesignActivities" sheetId="21" r:id="rId13"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId14"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId17"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId18"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId19"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId20"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId21"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId22"/>
-    <sheet name="configuration" sheetId="10" r:id="rId23"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId14"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId22"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId23"/>
+    <sheet name="configuration" sheetId="10" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="819">
   <si>
     <t>Screening</t>
   </si>
@@ -738,16 +739,7 @@
     <t>FOLLOW-UP</t>
   </si>
   <si>
-    <t>Alzheimer's disease</t>
-  </si>
-  <si>
     <t>IND2</t>
-  </si>
-  <si>
-    <t>SNOMED:26929004=Alzheimer's disease</t>
-  </si>
-  <si>
-    <t>ICD-10-CM: G30.9=Alzheimer's disease; unspecified</t>
   </si>
   <si>
     <t>ICD-10=1</t>
@@ -1924,9 +1916,6 @@
   </si>
   <si>
     <t xml:space="preserve">To document the safety profile of the xanomeline TTS.  </t>
-  </si>
-  <si>
-    <t>Indication</t>
   </si>
   <si>
     <t>High - Start</t>
@@ -2410,12 +2399,153 @@
   <si>
     <t>Region: Europe=15</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>SNOMED:12345=Indication1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>SNOMED:345678=Indication2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2472,6 +2602,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2505,7 +2641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2642,14 +2778,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2983,10 +3121,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -2996,7 +3134,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3006,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3076,7 +3214,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -3086,7 +3224,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -3104,7 +3242,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3125,71 +3263,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E17" t="s">
         <v>511</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="C17" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" t="s">
-        <v>513</v>
-      </c>
-      <c r="E17" t="s">
-        <v>514</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E18" t="s">
         <v>515</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="C18" t="s">
-        <v>516</v>
-      </c>
-      <c r="D18" t="s">
-        <v>517</v>
-      </c>
-      <c r="E18" t="s">
-        <v>518</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3220,13 +3358,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3234,7 +3372,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3248,13 +3386,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3264,38 +3402,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,7 +3460,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>209</v>
@@ -3367,7 +3505,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3386,7 +3524,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3396,7 +3534,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3458,10 +3596,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3647,22 +3785,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3670,7 +3808,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3682,22 +3820,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3707,56 +3845,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3773,10 +3911,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3785,10 +3923,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3797,10 +3935,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3809,10 +3947,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -3966,632 +4104,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>538</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>540</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4620,19 +4758,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4660,18 +4798,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4706,10 +4844,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4759,7 +4897,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4769,10 +4907,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4807,39 +4945,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C34" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C35" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C36" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C37" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -4848,30 +4986,243 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="G2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H2" t="s">
+        <v>799</v>
+      </c>
+      <c r="I2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J2" t="s">
+        <v>801</v>
+      </c>
+      <c r="K2" t="s">
+        <v>802</v>
+      </c>
+      <c r="L2" t="s">
+        <v>803</v>
+      </c>
+      <c r="M2" t="s">
+        <v>804</v>
+      </c>
+      <c r="N2" t="s">
+        <v>805</v>
+      </c>
+      <c r="O2" t="s">
+        <v>806</v>
+      </c>
+      <c r="P2" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R2" t="s">
+        <v>808</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E3" t="s">
+        <v>813</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="G3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H3" t="s">
+        <v>814</v>
+      </c>
+      <c r="I3" t="s">
+        <v>800</v>
+      </c>
+      <c r="J3" t="s">
+        <v>815</v>
+      </c>
+      <c r="K3" t="s">
+        <v>816</v>
+      </c>
+      <c r="L3" t="s">
+        <v>817</v>
+      </c>
+      <c r="M3" t="s">
+        <v>804</v>
+      </c>
+      <c r="N3" t="s">
+        <v>805</v>
+      </c>
+      <c r="O3" t="s">
+        <v>806</v>
+      </c>
+      <c r="P3" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>526</v>
+      </c>
+      <c r="R3" t="s">
+        <v>808</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -4882,27 +5233,27 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
+        <v>772</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>773</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>229</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>775</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>776</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>228</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -4911,7 +5262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4930,7 +5281,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>39</v>
@@ -4950,7 +5301,7 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>206</v>
@@ -4974,7 +5325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -4999,34 +5350,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -5039,11 +5390,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -5053,7 +5404,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5070,7 +5421,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5085,10 +5436,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -5129,7 +5480,7 @@
         <v>67</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>211</v>
@@ -5147,11 +5498,11 @@
         <v>179</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
@@ -5161,7 +5512,7 @@
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -5177,7 +5528,7 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -5386,7 +5737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -5436,7 +5787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5458,13 +5809,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>91</v>
@@ -5500,25 +5851,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -5527,7 +5878,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -5549,22 +5963,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -5596,7 +6010,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5725,7 +6139,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5745,7 +6159,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5765,7 +6179,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5785,7 +6199,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5838,70 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>775</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -5920,13 +6271,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>98</v>
@@ -5988,7 +6339,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>183</v>
@@ -6002,7 +6353,7 @@
         <v>190</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>189</v>
@@ -6016,7 +6367,7 @@
         <v>187</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>191</v>
@@ -6030,7 +6381,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>193</v>
@@ -6045,7 +6396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6065,45 +6416,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" t="s">
         <v>603</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>604</v>
-      </c>
-      <c r="D2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F2" t="s">
-        <v>607</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -6111,13 +6462,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -6125,13 +6476,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -6139,25 +6490,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" t="s">
         <v>706</v>
       </c>
-      <c r="B5" t="s">
-        <v>707</v>
-      </c>
-      <c r="C5" t="s">
-        <v>708</v>
-      </c>
-      <c r="D5" t="s">
-        <v>709</v>
-      </c>
-      <c r="E5" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" t="s">
-        <v>710</v>
-      </c>
       <c r="G5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6165,7 +6516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -6183,1251 +6534,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -7436,7 +7787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7468,7 +7819,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7476,7 +7827,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7536,24 +7887,24 @@
         <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" t="s">
         <v>532</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>533</v>
-      </c>
-      <c r="C3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7585,120 +7936,120 @@
       <c r="A1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>694</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="51" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>729</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7730,7 +8081,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -7790,16 +8141,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7828,102 +8179,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="F2" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>728</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -7950,22 +8301,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8051,13 +8402,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8085,7 +8436,7 @@
         <v>222</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -8099,7 +8450,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -8113,7 +8464,7 @@
         <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -8127,7 +8478,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>225</v>
@@ -8174,55 +8525,55 @@
         <v>86</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8292,16 +8643,16 @@
         <v>90</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>144</v>
@@ -8316,25 +8667,25 @@
         <v>213</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>157</v>
@@ -8350,121 +8701,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8519,7 +8870,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -8804,7 +9155,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -8859,7 +9210,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9244,10 +9595,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9524,7 +9875,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9691,7 +10042,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9800,7 +10151,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9912,7 +10263,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10706,13 +11057,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -10720,7 +11071,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10734,13 +11085,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10750,38 +11101,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11422,6 +11773,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -11622,27 +11993,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11659,29 +12035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4B4FD7-F522-4D4F-9962-C145BDACFAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9B2AF-5F22-A04F-958A-7C77C4AC2AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="822">
   <si>
     <t>Screening</t>
   </si>
@@ -179,15 +179,6 @@
   </si>
   <si>
     <t>populationDescription</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>plannedSexOfParticipants</t>
@@ -2304,9 +2295,6 @@
     <t>3 mins</t>
   </si>
   <si>
-    <t>-2..0 mins</t>
-  </si>
-  <si>
     <t>0 mins</t>
   </si>
   <si>
@@ -2539,6 +2527,27 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>-2..0 min</t>
   </si>
 </sst>
 </file>
@@ -2777,6 +2786,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2786,8 +2797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3121,10 +3130,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3134,7 +3143,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3144,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3164,74 +3173,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -3239,20 +3248,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -3263,71 +3272,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" t="s">
+        <v>507</v>
+      </c>
+      <c r="E17" t="s">
         <v>508</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="C17" t="s">
-        <v>509</v>
-      </c>
-      <c r="D17" t="s">
-        <v>510</v>
-      </c>
-      <c r="E17" t="s">
-        <v>511</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" t="s">
         <v>512</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="C18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D18" t="s">
-        <v>514</v>
-      </c>
-      <c r="E18" t="s">
-        <v>515</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3355,24 +3364,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3383,16 +3392,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3402,38 +3411,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3444,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3460,10 +3469,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3505,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3514,7 +3523,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3524,7 +3533,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3534,7 +3543,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3544,7 +3553,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3556,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3566,7 +3575,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3576,7 +3585,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3586,7 +3595,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3596,10 +3605,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>694</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3782,33 +3791,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3817,25 +3826,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3845,56 +3854,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3905,16 +3914,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3923,10 +3932,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3935,10 +3944,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3947,10 +3956,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4088,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4104,632 +4113,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>535</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>536</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>537</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>740</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4758,19 +4767,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4785,7 +4794,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4798,18 +4807,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4824,40 +4833,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4867,12 +4876,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4892,50 +4901,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4945,39 +4954,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C34" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C35" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C36" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C37" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -4989,7 +4998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5019,179 +5028,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>787</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>789</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>790</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E2" t="s">
         <v>792</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="49" t="s">
         <v>793</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>794</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>795</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>796</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="J2" t="s">
         <v>797</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>798</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>799</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>800</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>801</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>802</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>803</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
+        <v>523</v>
+      </c>
+      <c r="R2" t="s">
         <v>804</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" s="50" t="s">
         <v>805</v>
-      </c>
-      <c r="O2" t="s">
-        <v>806</v>
-      </c>
-      <c r="P2" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>808</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="G3" t="s">
+        <v>794</v>
+      </c>
+      <c r="H3" t="s">
         <v>810</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>796</v>
+      </c>
+      <c r="J3" t="s">
         <v>811</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>812</v>
       </c>
-      <c r="D3" t="s">
-        <v>795</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>813</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>797</v>
-      </c>
-      <c r="G3" t="s">
-        <v>798</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>800</v>
+      </c>
+      <c r="N3" t="s">
+        <v>801</v>
+      </c>
+      <c r="O3" t="s">
+        <v>802</v>
+      </c>
+      <c r="P3" t="s">
         <v>814</v>
       </c>
-      <c r="I3" t="s">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>815</v>
-      </c>
-      <c r="K3" t="s">
-        <v>816</v>
-      </c>
-      <c r="L3" t="s">
-        <v>817</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
+        <v>523</v>
+      </c>
+      <c r="R3" t="s">
         <v>804</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" s="50" t="s">
         <v>805</v>
-      </c>
-      <c r="O3" t="s">
-        <v>806</v>
-      </c>
-      <c r="P3" t="s">
-        <v>818</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>526</v>
-      </c>
-      <c r="R3" t="s">
-        <v>808</v>
-      </c>
-      <c r="S3" s="53" t="s">
-        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -5216,13 +5225,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5230,30 +5239,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -5264,59 +5273,77 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="33" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3">
+        <v>300</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="3">
-        <v>300</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5350,65 +5377,65 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="I1" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -5417,15 +5444,15 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -5433,26 +5460,26 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -5461,14 +5488,14 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -5477,17 +5504,17 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -5495,28 +5522,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5524,15 +5551,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5540,14 +5567,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -5757,28 +5784,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5809,67 +5836,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -5898,22 +5925,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>521</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5921,19 +5948,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>528</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -5963,286 +5990,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6271,27 +6298,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6300,94 +6327,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6401,7 +6428,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6416,73 +6443,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" t="s">
         <v>600</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>601</v>
       </c>
-      <c r="D2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F2" t="s">
-        <v>604</v>
-      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -6490,25 +6517,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D5" t="s">
         <v>702</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" t="s">
         <v>703</v>
       </c>
-      <c r="C5" t="s">
-        <v>704</v>
-      </c>
-      <c r="D5" t="s">
-        <v>705</v>
-      </c>
-      <c r="E5" t="s">
-        <v>574</v>
-      </c>
-      <c r="F5" t="s">
-        <v>706</v>
-      </c>
       <c r="G5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6534,1251 +6561,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>229</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7800,34 +7827,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7875,36 +7902,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
         <v>529</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>530</v>
-      </c>
-      <c r="C3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7934,122 +7961,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+        <v>122</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+        <v>124</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>690</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>725</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+        <v>81</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8061,82 +8088,82 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8179,102 +8206,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="F2" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>593</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>711</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>715</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="D5" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>724</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -8301,82 +8328,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -8402,13 +8429,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8416,72 +8443,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8519,69 +8546,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -8637,61 +8664,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -8701,121 +8728,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8824,101 +8851,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -8929,7 +8956,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9045,7 +9072,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -9155,7 +9182,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9210,7 +9237,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9375,7 +9402,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -9430,7 +9457,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -9485,7 +9512,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -9540,7 +9567,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -9595,10 +9622,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9652,7 +9679,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -9707,7 +9734,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -9817,7 +9844,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -9872,10 +9899,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10042,7 +10069,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10096,7 +10123,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -10151,7 +10178,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10206,10 +10233,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10263,7 +10290,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10318,7 +10345,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -10375,7 +10402,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -10430,7 +10457,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -10485,7 +10512,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -10540,7 +10567,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11054,24 +11081,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11082,16 +11109,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11101,38 +11128,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11143,7 +11170,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11152,7 +11179,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9B2AF-5F22-A04F-958A-7C77C4AC2AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0AAA9C-97AD-004E-BCC7-0C04B0B93717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="822">
   <si>
     <t>Screening</t>
   </si>
@@ -637,9 +637,6 @@
     <t>Completion of all specified followup activities (which vary on a patient-by-patient basis)</t>
   </si>
   <si>
-    <t>50 years</t>
-  </si>
-  <si>
     <t>Vital signs (weight, standing and supine blood pressure, heart rate)</t>
   </si>
   <si>
@@ -656,9 +653,6 @@
   </si>
   <si>
     <t>SNOMED: 383371000119108=CT of head without contrast</t>
-  </si>
-  <si>
-    <t>100 years</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment 2 </t>
@@ -2548,6 +2542,12 @@
   </si>
   <si>
     <t>-2..0 min</t>
+  </si>
+  <si>
+    <t>50 .. 100 years</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
   </si>
 </sst>
 </file>
@@ -2789,13 +2789,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3130,10 +3130,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3143,7 +3143,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3153,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3183,7 +3183,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -3223,7 +3223,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -3233,7 +3233,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -3251,7 +3251,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3272,71 +3272,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" t="s">
         <v>505</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>506</v>
-      </c>
-      <c r="D17" t="s">
-        <v>507</v>
-      </c>
-      <c r="E17" t="s">
-        <v>508</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D18" t="s">
         <v>509</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>510</v>
-      </c>
-      <c r="D18" t="s">
-        <v>511</v>
-      </c>
-      <c r="E18" t="s">
-        <v>512</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3367,13 +3367,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3395,13 +3395,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3411,38 +3411,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,10 +3469,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3514,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3533,7 +3533,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3543,7 +3543,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3605,10 +3605,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3794,22 +3794,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3829,22 +3829,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3854,56 +3854,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3920,10 +3920,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3932,10 +3932,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3944,10 +3944,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3956,10 +3956,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4097,7 +4097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4113,632 +4113,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>533</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4767,19 +4767,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4807,18 +4807,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4853,10 +4853,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4916,10 +4916,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,39 +4954,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C34" t="s">
         <v>745</v>
-      </c>
-      <c r="C34" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C35" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C36" t="s">
         <v>746</v>
-      </c>
-      <c r="C36" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C37" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -5028,179 +5028,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>785</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>786</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" t="s">
         <v>788</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>789</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>790</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>792</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
         <v>793</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>794</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>795</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>796</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>797</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>798</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>799</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>800</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>801</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>521</v>
+      </c>
+      <c r="R2" t="s">
         <v>802</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>803</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>523</v>
-      </c>
-      <c r="R2" t="s">
-        <v>804</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" t="s">
         <v>806</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E3" t="s">
         <v>807</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="G3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H3" t="s">
         <v>808</v>
       </c>
-      <c r="D3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>794</v>
+      </c>
+      <c r="J3" t="s">
         <v>809</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>793</v>
-      </c>
-      <c r="G3" t="s">
-        <v>794</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>810</v>
       </c>
-      <c r="I3" t="s">
-        <v>796</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>811</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>798</v>
+      </c>
+      <c r="N3" t="s">
+        <v>799</v>
+      </c>
+      <c r="O3" t="s">
+        <v>800</v>
+      </c>
+      <c r="P3" t="s">
         <v>812</v>
       </c>
-      <c r="L3" t="s">
-        <v>813</v>
-      </c>
-      <c r="M3" t="s">
-        <v>800</v>
-      </c>
-      <c r="N3" t="s">
-        <v>801</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>521</v>
+      </c>
+      <c r="R3" t="s">
         <v>802</v>
       </c>
-      <c r="P3" t="s">
-        <v>814</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>523</v>
-      </c>
-      <c r="R3" t="s">
-        <v>804</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -5225,13 +5225,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5242,27 +5242,27 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="C2" t="s">
-        <v>769</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>771</v>
-      </c>
-      <c r="C3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -5273,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5287,48 +5287,45 @@
     <col min="4" max="4" width="6.83203125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>818</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>820</v>
-      </c>
       <c r="B2" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5337,12 +5334,9 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5377,34 +5371,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>605</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>607</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>606</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5417,11 +5411,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>47</v>
@@ -5431,7 +5425,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5448,7 +5442,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5463,10 +5457,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>47</v>
@@ -5491,7 +5485,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -5507,10 +5501,10 @@
         <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5525,21 +5519,21 @@
         <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -5551,11 +5545,11 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -5567,7 +5561,7 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>177</v>
@@ -5836,13 +5830,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>88</v>
@@ -5862,41 +5856,41 @@
         <v>92</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -5925,22 +5919,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>519</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5948,19 +5942,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>525</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -5990,22 +5984,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>95</v>
@@ -6037,7 +6031,7 @@
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6157,7 +6151,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>99</v>
@@ -6166,7 +6160,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6186,7 +6180,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6206,7 +6200,7 @@
         <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6226,7 +6220,7 @@
         <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6298,13 +6292,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>95</v>
@@ -6366,7 +6360,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>180</v>
@@ -6380,7 +6374,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>186</v>
@@ -6394,7 +6388,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>188</v>
@@ -6408,7 +6402,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>190</v>
@@ -6443,73 +6437,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" t="s">
         <v>597</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>598</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>599</v>
       </c>
-      <c r="E2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F2" t="s">
-        <v>601</v>
-      </c>
       <c r="G2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -6517,25 +6511,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" t="s">
         <v>699</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>700</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" t="s">
         <v>701</v>
       </c>
-      <c r="D5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E5" t="s">
-        <v>571</v>
-      </c>
-      <c r="F5" t="s">
-        <v>703</v>
-      </c>
       <c r="G5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6561,1251 +6555,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>227</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7846,7 +7840,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7854,7 +7848,7 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7911,27 +7905,27 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" t="s">
         <v>526</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>527</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>528</v>
-      </c>
-      <c r="D3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7963,120 +7957,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>687</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>722</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8097,18 +8091,18 @@
         <v>157</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -8148,7 +8142,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>115</v>
@@ -8168,16 +8162,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8206,102 +8200,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>591</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>703</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>708</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>712</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>717</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -8328,22 +8322,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8357,13 +8351,13 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8371,39 +8365,39 @@
         <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8429,13 +8423,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8443,16 +8437,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8460,10 +8454,10 @@
         <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>133</v>
@@ -8471,13 +8465,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -8485,13 +8479,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
@@ -8499,16 +8493,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8552,55 +8546,55 @@
         <v>83</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>630</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8670,16 +8664,16 @@
         <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>141</v>
@@ -8691,28 +8685,28 @@
         <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>154</v>
@@ -8728,121 +8722,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>632</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8887,17 +8881,17 @@
         <v>156</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>97</v>
@@ -9182,7 +9176,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9237,7 +9231,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9622,10 +9616,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9902,7 +9896,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10069,7 +10063,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10178,7 +10172,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10236,7 +10230,7 @@
         <v>168</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10290,7 +10284,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11084,13 +11078,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -11098,7 +11092,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11112,13 +11106,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11128,38 +11122,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11179,7 +11173,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -11800,6 +11794,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11808,15 +11811,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12021,6 +12015,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12033,14 +12035,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0AAA9C-97AD-004E-BCC7-0C04B0B93717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20B6FC-D912-EF43-9D24-3C48C4F53FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1845,9 +1845,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>attribute</t>
-  </si>
-  <si>
     <t>Dictionary for IE</t>
   </si>
   <si>
@@ -2532,12 +2529,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -2548,6 +2539,15 @@
   </si>
   <si>
     <t>plannedAge</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@maxValue</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@minValue</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
@@ -2789,13 +2789,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3298,7 +3298,7 @@
         <v>503</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C17" t="s">
         <v>504</v>
@@ -3321,7 +3321,7 @@
         <v>507</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C18" t="s">
         <v>508</v>
@@ -3367,13 +3367,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3395,13 +3395,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3421,7 +3421,7 @@
         <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>204</v>
@@ -3514,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3533,7 +3533,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3543,7 +3543,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3605,10 +3605,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3794,22 +3794,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3829,22 +3829,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3873,16 +3873,16 @@
         <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3920,10 +3920,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3932,10 +3932,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3944,10 +3944,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3956,10 +3956,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>542</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>538</v>
@@ -4226,7 +4226,7 @@
         <v>549</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>141</v>
@@ -4241,7 +4241,7 @@
         <v>542</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>538</v>
@@ -4255,7 +4255,7 @@
         <v>551</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
@@ -4270,7 +4270,7 @@
         <v>542</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>538</v>
@@ -4284,7 +4284,7 @@
         <v>571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
@@ -4299,7 +4299,7 @@
         <v>542</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>538</v>
@@ -4313,7 +4313,7 @@
         <v>572</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>208</v>
@@ -4328,7 +4328,7 @@
         <v>542</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>538</v>
@@ -4342,22 +4342,22 @@
         <v>573</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>563</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>538</v>
@@ -4368,7 +4368,7 @@
         <v>574</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
@@ -4383,13 +4383,13 @@
         <v>542</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>538</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4397,22 +4397,22 @@
         <v>575</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>538</v>
@@ -4423,7 +4423,7 @@
         <v>576</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
@@ -4438,13 +4438,13 @@
         <v>542</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>538</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4452,22 +4452,22 @@
         <v>577</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>565</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>538</v>
@@ -4478,7 +4478,7 @@
         <v>578</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
@@ -4493,13 +4493,13 @@
         <v>542</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>538</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4507,22 +4507,22 @@
         <v>579</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>538</v>
@@ -4534,7 +4534,7 @@
         <v>580</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>154</v>
@@ -4549,13 +4549,13 @@
         <v>542</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>538</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -4563,7 +4563,7 @@
         <v>581</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>155</v>
@@ -4572,13 +4572,13 @@
         <v>550</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>542</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>538</v>
@@ -4592,19 +4592,19 @@
         <v>582</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>548</v>
@@ -4616,19 +4616,19 @@
         <v>583</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>548</v>
@@ -4636,50 +4636,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>547</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>538</v>
@@ -4688,57 +4688,57 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>550</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4776,10 +4776,10 @@
         <v>500</v>
       </c>
       <c r="D1" s="44" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>635</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4807,18 +4807,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4853,10 +4853,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C14" t="s">
         <v>637</v>
-      </c>
-      <c r="C14" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4916,10 +4916,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,39 +4954,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -5040,167 +5040,167 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>784</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" t="s">
         <v>786</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>787</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>788</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>789</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="49" t="s">
         <v>790</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" t="s">
         <v>791</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>792</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>793</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>794</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>795</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>796</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>797</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>798</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>799</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>800</v>
-      </c>
-      <c r="P2" t="s">
-        <v>801</v>
       </c>
       <c r="Q2" t="s">
         <v>521</v>
       </c>
       <c r="R2" t="s">
+        <v>801</v>
+      </c>
+      <c r="S2" s="50" t="s">
         <v>802</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" t="s">
         <v>804</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>805</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E3" t="s">
         <v>806</v>
       </c>
-      <c r="D3" t="s">
-        <v>789</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="G3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H3" t="s">
         <v>807</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>791</v>
-      </c>
-      <c r="G3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>793</v>
+      </c>
+      <c r="J3" t="s">
         <v>808</v>
       </c>
-      <c r="I3" t="s">
-        <v>794</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>809</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>810</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>797</v>
+      </c>
+      <c r="N3" t="s">
+        <v>798</v>
+      </c>
+      <c r="O3" t="s">
+        <v>799</v>
+      </c>
+      <c r="P3" t="s">
         <v>811</v>
-      </c>
-      <c r="M3" t="s">
-        <v>798</v>
-      </c>
-      <c r="N3" t="s">
-        <v>799</v>
-      </c>
-      <c r="O3" t="s">
-        <v>800</v>
-      </c>
-      <c r="P3" t="s">
-        <v>812</v>
       </c>
       <c r="Q3" t="s">
         <v>521</v>
       </c>
       <c r="R3" t="s">
+        <v>801</v>
+      </c>
+      <c r="S3" s="50" t="s">
         <v>802</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -5242,13 +5242,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2" t="s">
         <v>766</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5256,13 +5256,13 @@
         <v>221</v>
       </c>
       <c r="B3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C3" t="s">
         <v>769</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="9" t="s">
         <v>770</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +5275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -5293,7 +5293,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>225</v>
@@ -5305,13 +5305,13 @@
         <v>500</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>814</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>815</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>201</v>
@@ -5334,7 +5334,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5371,34 +5371,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5411,11 +5411,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>47</v>
@@ -5457,10 +5457,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>47</v>
@@ -5519,11 +5519,11 @@
         <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
@@ -5872,25 +5872,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -5954,7 +5954,7 @@
         <v>523</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -5996,10 +5996,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>633</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>95</v>
@@ -6031,7 +6031,7 @@
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6160,7 +6160,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6200,7 +6200,7 @@
         <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
         <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6360,7 +6360,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>180</v>
@@ -6374,7 +6374,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>186</v>
@@ -6388,7 +6388,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>188</v>
@@ -6402,7 +6402,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>190</v>
@@ -6421,8 +6421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6455,7 +6455,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>594</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6463,70 +6463,70 @@
         <v>591</v>
       </c>
       <c r="B2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2" t="s">
         <v>595</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>596</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>597</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>598</v>
       </c>
-      <c r="F2" t="s">
-        <v>599</v>
-      </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" t="s">
         <v>598</v>
       </c>
-      <c r="F3" t="s">
-        <v>599</v>
-      </c>
       <c r="G3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" t="s">
         <v>598</v>
       </c>
-      <c r="F4" t="s">
-        <v>599</v>
-      </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B5" t="s">
         <v>697</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>698</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>699</v>
-      </c>
-      <c r="D5" t="s">
-        <v>700</v>
       </c>
       <c r="E5" t="s">
         <v>569</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G5" t="s">
         <v>500</v>
@@ -6576,7 +6576,7 @@
         <v>498</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
         <v>495</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6689,7 +6689,7 @@
         <v>251</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6701,7 +6701,7 @@
         <v>253</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6758,7 +6758,7 @@
         <v>265</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6779,7 +6779,7 @@
         <v>269</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>271</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6821,7 +6821,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7908,7 +7908,7 @@
         <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7957,120 +7957,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>685</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8102,7 +8102,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -8162,16 +8162,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,16 +8246,16 @@
         <v>586</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>705</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>706</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>591</v>
@@ -8266,36 +8266,36 @@
         <v>586</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>710</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>716</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -8334,10 +8334,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8457,7 +8457,7 @@
         <v>217</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>133</v>
@@ -8471,7 +8471,7 @@
         <v>217</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -8485,7 +8485,7 @@
         <v>217</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
@@ -8570,31 +8570,31 @@
         <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>564</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>565</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>566</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>567</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8667,10 +8667,10 @@
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>568</v>
@@ -8688,25 +8688,25 @@
         <v>208</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>154</v>
@@ -8795,31 +8795,31 @@
         <v>563</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>564</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>565</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>566</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>567</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>570</v>
@@ -9176,7 +9176,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9231,7 +9231,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9616,10 +9616,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10063,7 +10063,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10172,7 +10172,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10284,7 +10284,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11078,13 +11078,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -11092,7 +11092,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11106,13 +11106,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11132,7 +11132,7 @@
         <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -11794,15 +11794,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11811,6 +11802,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12015,14 +12015,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12035,6 +12027,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20B6FC-D912-EF43-9D24-3C48C4F53FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDD03F-B784-0146-9772-293CB35F0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="2" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -661,12 +661,6 @@
     <t>Treatment 3</t>
   </si>
   <si>
-    <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer\'s Disease, SNOMED: 26929004=Alzheimer\'s disease</t>
-  </si>
-  <si>
-    <t>Patients with Probable Mild to Moderate Alzheimer\'s Disease</t>
-  </si>
-  <si>
     <t>H2Q-MC-LZZT</t>
   </si>
   <si>
@@ -2548,6 +2542,12 @@
   </si>
   <si>
     <t>path</t>
+  </si>
+  <si>
+    <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer's Disease, SNOMED: 26929004=Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
   </si>
 </sst>
 </file>
@@ -2650,7 +2650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2790,9 +2790,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3114,7 +3111,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,10 +3127,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3143,7 +3140,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3153,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3183,7 +3180,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -3223,7 +3220,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -3233,7 +3230,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -3251,7 +3248,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -3272,71 +3269,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
         <v>503</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" t="s">
         <v>507</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>508</v>
-      </c>
-      <c r="D18" t="s">
-        <v>509</v>
-      </c>
-      <c r="E18" t="s">
-        <v>510</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3367,13 +3364,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3381,7 +3378,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3395,13 +3392,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3411,38 +3408,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,10 +3466,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3514,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3533,7 +3530,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3543,7 +3540,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3605,10 +3602,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3794,22 +3791,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3817,7 +3814,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3829,22 +3826,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3854,56 +3851,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3920,10 +3917,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3932,10 +3929,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3944,10 +3941,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3956,10 +3953,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4113,632 +4110,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>531</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4767,19 +4764,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4807,18 +4804,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4853,10 +4850,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,7 +4903,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4916,10 +4913,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,39 +4951,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C34" t="s">
         <v>742</v>
-      </c>
-      <c r="C34" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C35" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C36" t="s">
         <v>743</v>
-      </c>
-      <c r="C36" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C37" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -5028,179 +5025,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>782</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>783</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2" t="s">
         <v>785</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>786</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>787</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="49" t="s">
         <v>788</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>789</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
         <v>790</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>791</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>792</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>793</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>794</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>795</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>796</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>797</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>798</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R2" t="s">
         <v>799</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>800</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>521</v>
-      </c>
-      <c r="R2" t="s">
-        <v>801</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C3" t="s">
         <v>803</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E3" t="s">
         <v>804</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>788</v>
+      </c>
+      <c r="G3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H3" t="s">
         <v>805</v>
       </c>
-      <c r="D3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>791</v>
+      </c>
+      <c r="J3" t="s">
         <v>806</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="G3" t="s">
-        <v>791</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>807</v>
       </c>
-      <c r="I3" t="s">
-        <v>793</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>808</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>795</v>
+      </c>
+      <c r="N3" t="s">
+        <v>796</v>
+      </c>
+      <c r="O3" t="s">
+        <v>797</v>
+      </c>
+      <c r="P3" t="s">
         <v>809</v>
       </c>
-      <c r="L3" t="s">
-        <v>810</v>
-      </c>
-      <c r="M3" t="s">
-        <v>797</v>
-      </c>
-      <c r="N3" t="s">
-        <v>798</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>519</v>
+      </c>
+      <c r="R3" t="s">
         <v>799</v>
       </c>
-      <c r="P3" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>521</v>
-      </c>
-      <c r="R3" t="s">
-        <v>801</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -5225,13 +5222,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5242,27 +5239,27 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>765</v>
-      </c>
-      <c r="C2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="C3" t="s">
-        <v>769</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -5276,7 +5273,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5293,39 +5290,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>201</v>
+        <v>821</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5334,7 +5331,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5350,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5371,34 +5368,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>605</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5411,11 +5408,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>47</v>
@@ -5425,7 +5422,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5442,7 +5439,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5457,10 +5454,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>47</v>
@@ -5501,10 +5498,10 @@
         <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5519,11 +5516,11 @@
         <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
@@ -5533,7 +5530,7 @@
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
@@ -5549,7 +5546,7 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
@@ -5830,13 +5827,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>88</v>
@@ -5872,25 +5869,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -5919,22 +5916,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>518</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,19 +5939,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>523</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -5984,22 +5981,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>95</v>
@@ -6031,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6151,7 +6148,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>99</v>
@@ -6160,7 +6157,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6180,7 +6177,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6200,7 +6197,7 @@
         <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6220,7 +6217,7 @@
         <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6292,13 +6289,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>95</v>
@@ -6360,7 +6357,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>180</v>
@@ -6374,7 +6371,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>186</v>
@@ -6388,7 +6385,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>188</v>
@@ -6402,7 +6399,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>190</v>
@@ -6421,7 +6418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6437,73 +6434,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s">
         <v>594</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>595</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>596</v>
       </c>
-      <c r="E2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
       <c r="G2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -6511,25 +6508,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" t="s">
         <v>696</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>697</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
         <v>698</v>
       </c>
-      <c r="D5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" t="s">
-        <v>700</v>
-      </c>
       <c r="G5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6555,1251 +6552,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7840,7 +7837,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7848,7 +7845,7 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7905,27 +7902,27 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" t="s">
         <v>524</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>525</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7941,8 +7938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7977,12 +7974,12 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>200</v>
+        <v>820</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -7993,12 +7990,12 @@
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -8029,8 +8026,8 @@
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>684</v>
+      <c r="B7" s="52" t="s">
+        <v>682</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
@@ -8065,12 +8062,12 @@
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>719</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="52" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8097,12 +8094,12 @@
         <v>199</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -8142,7 +8139,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>115</v>
@@ -8200,102 +8197,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>589</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>705</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>704</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>709</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>713</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>714</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -8322,22 +8319,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8351,13 +8348,13 @@
         <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8365,39 +8362,39 @@
         <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8423,13 +8420,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8437,16 +8434,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8454,10 +8451,10 @@
         <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>133</v>
@@ -8468,10 +8465,10 @@
         <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -8482,10 +8479,10 @@
         <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
@@ -8493,16 +8490,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8546,55 +8543,55 @@
         <v>83</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8664,16 +8661,16 @@
         <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>141</v>
@@ -8685,28 +8682,28 @@
         <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>154</v>
@@ -8722,121 +8719,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>629</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8884,14 +8881,14 @@
         <v>199</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>97</v>
@@ -9176,7 +9173,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9231,7 +9228,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9616,10 +9613,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9896,7 +9893,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10063,7 +10060,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10172,7 +10169,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10230,7 +10227,7 @@
         <v>168</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10284,7 +10281,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11078,13 +11075,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -11092,7 +11089,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11106,13 +11103,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11122,38 +11119,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11173,7 +11170,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDD03F-B784-0146-9772-293CB35F0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C7082-D70C-C84F-9739-C993DAEA5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="2" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26900" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2131,18 +2131,6 @@
     <t>Screen One</t>
   </si>
   <si>
-    <t>&lt;usdm:section name="M11-title-page"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-exclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:section name="M11-objective-endpoints"&gt;</t>
-  </si>
-  <si>
     <t>StudyPopulation</t>
   </si>
   <si>
@@ -2548,6 +2536,18 @@
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>&lt;usdm:ref  template="m11" section="inclusion"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:ref  template="m11" section="exclusion"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:ref  template="m11" section="objective_endpoints"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:ref  template="m11" section="title_page"&gt;</t>
   </si>
 </sst>
 </file>
@@ -3295,7 +3295,7 @@
         <v>501</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C17" t="s">
         <v>502</v>
@@ -3318,7 +3318,7 @@
         <v>505</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C18" t="s">
         <v>506</v>
@@ -3791,22 +3791,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3826,22 +3826,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3870,13 +3870,13 @@
         <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>674</v>
@@ -3917,10 +3917,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3941,10 +3941,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3953,10 +3953,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4633,50 +4633,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>536</v>
@@ -4685,57 +4685,57 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4804,18 +4804,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4956,34 +4956,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C34" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C35" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C36" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C37" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -5037,167 +5037,167 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>778</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>779</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>780</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2" t="s">
         <v>783</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>785</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>786</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>787</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="J2" t="s">
         <v>788</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>789</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>790</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>791</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>792</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>793</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>794</v>
-      </c>
-      <c r="M2" t="s">
-        <v>795</v>
-      </c>
-      <c r="N2" t="s">
-        <v>796</v>
-      </c>
-      <c r="O2" t="s">
-        <v>797</v>
-      </c>
-      <c r="P2" t="s">
-        <v>798</v>
       </c>
       <c r="Q2" t="s">
         <v>519</v>
       </c>
       <c r="R2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="G3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3" t="s">
         <v>801</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>787</v>
+      </c>
+      <c r="J3" t="s">
         <v>802</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>803</v>
       </c>
-      <c r="D3" t="s">
-        <v>786</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>804</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>788</v>
-      </c>
-      <c r="G3" t="s">
-        <v>789</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>791</v>
+      </c>
+      <c r="N3" t="s">
+        <v>792</v>
+      </c>
+      <c r="O3" t="s">
+        <v>793</v>
+      </c>
+      <c r="P3" t="s">
         <v>805</v>
-      </c>
-      <c r="I3" t="s">
-        <v>791</v>
-      </c>
-      <c r="J3" t="s">
-        <v>806</v>
-      </c>
-      <c r="K3" t="s">
-        <v>807</v>
-      </c>
-      <c r="L3" t="s">
-        <v>808</v>
-      </c>
-      <c r="M3" t="s">
-        <v>795</v>
-      </c>
-      <c r="N3" t="s">
-        <v>796</v>
-      </c>
-      <c r="O3" t="s">
-        <v>797</v>
-      </c>
-      <c r="P3" t="s">
-        <v>809</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
       </c>
       <c r="R3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -5239,13 +5239,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,13 +5253,13 @@
         <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5290,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5302,13 +5302,13 @@
         <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>812</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>816</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5316,13 +5316,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>596</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5331,7 +5331,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5347,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5869,25 +5869,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -5951,7 +5951,7 @@
         <v>521</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -6452,7 +6452,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6475,7 +6475,7 @@
         <v>596</v>
       </c>
       <c r="G2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6489,12 +6489,12 @@
         <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
         <v>595</v>
@@ -6508,22 +6508,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E5" t="s">
         <v>567</v>
       </c>
       <c r="F5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G5" t="s">
         <v>498</v>
@@ -6538,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6573,7 +6573,7 @@
         <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>689</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>692</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6686,7 +6686,7 @@
         <v>249</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6698,7 +6698,7 @@
         <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6755,7 +6755,7 @@
         <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6776,7 +6776,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>690</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>691</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6818,7 +6818,7 @@
         <v>275</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7979,7 +7979,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -8063,7 +8063,7 @@
         <v>81</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
@@ -8243,16 +8243,16 @@
         <v>584</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>589</v>
@@ -8263,36 +8263,36 @@
         <v>584</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>716</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -9173,7 +9173,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9228,7 +9228,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9616,7 +9616,7 @@
         <v>634</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C7082-D70C-C84F-9739-C993DAEA5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95DBEB0-29CF-A54C-88E2-455A775E7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26900" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -6539,7 +6539,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95DBEB0-29CF-A54C-88E2-455A775E7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5730E5-E9CD-0D41-A207-1258576CFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26900" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -2547,7 +2547,7 @@
     <t>&lt;usdm:ref  template="m11" section="objective_endpoints"&gt;</t>
   </si>
   <si>
-    <t>&lt;usdm:ref  template="m11" section="title_page"&gt;</t>
+    <t>&lt;usdm:ref title_page="true"/&gt;&lt;usdm:ref table_of_contents="true"/&gt;&lt;usdm:ref  template="m11" section="title_page"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2789,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6539,7 +6539,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7954,120 +7954,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>713</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8159,16 +8159,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11791,6 +11791,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11799,15 +11808,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12012,6 +12012,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12024,14 +12032,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5730E5-E9CD-0D41-A207-1258576CFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CD004-EAB9-C34B-8C5D-9F17C144DBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26900" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="2260" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2538,16 +2538,16 @@
     <t>Patients with Probable Mild to Moderate Alzheimer's Disease</t>
   </si>
   <si>
-    <t>&lt;usdm:ref  template="m11" section="inclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:ref  template="m11" section="exclusion"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:ref  template="m11" section="objective_endpoints"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;usdm:ref title_page="true"/&gt;&lt;usdm:ref table_of_contents="true"/&gt;&lt;usdm:ref  template="m11" section="title_page"&gt;</t>
+    <t>&lt;usdm:macro id="section" name="objective_endpoints" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="title_page" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="inclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2789,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6538,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6573,7 +6573,7 @@
         <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6776,7 +6776,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7954,120 +7954,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>713</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8159,16 +8159,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11791,15 +11791,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11808,6 +11799,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12012,14 +12012,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12032,6 +12024,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CD004-EAB9-C34B-8C5D-9F17C144DBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D50480-A7C4-E149-B67B-6C719DA1567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="4" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1827,9 +1827,6 @@
     <t>The study age criterion</t>
   </si>
   <si>
-    <t>Subjects shall be between [min_age] and [max_age]</t>
-  </si>
-  <si>
     <t>IE_Dict</t>
   </si>
   <si>
@@ -2161,9 +2158,6 @@
     <t>The study population criterion</t>
   </si>
   <si>
-    <t>[StudyPopulation] as defined by the NINCDS and the ADRDA guidelines (Attachment LZZT.7)</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -2171,9 +2165,6 @@
   </si>
   <si>
     <t>The study diagnosis criterion</t>
-  </si>
-  <si>
-    <t>[Activity1] score of 10 to 23</t>
   </si>
   <si>
     <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;</t>
@@ -2548,6 +2539,15 @@
   </si>
   <si>
     <t>&lt;usdm:macro id="section" name="exclusion" template="m11"&gt;</t>
+  </si>
+  <si>
+    <t>Subjects shall be between &lt;usdm:tag name="min_age"/&gt; and &lt;usdm:tag name="max_age"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;usdm:tag name="StudyPopulation"/&gt; as defined by the NINCDS and the ADRDA guidelines (Attachment LZZT.7)</t>
+  </si>
+  <si>
+    <t>&lt;usdm:tag name="Activity1"/&gt; score of 10 to 23</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2789,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3295,7 +3295,7 @@
         <v>501</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C17" t="s">
         <v>502</v>
@@ -3318,7 +3318,7 @@
         <v>505</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C18" t="s">
         <v>506</v>
@@ -3364,13 +3364,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3378,7 +3378,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3392,13 +3392,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3418,7 +3418,7 @@
         <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>202</v>
@@ -3511,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3530,7 +3530,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3540,7 +3540,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3602,10 +3602,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3791,22 +3791,22 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3826,22 +3826,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3870,16 +3870,16 @@
         <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3917,10 +3917,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3929,10 +3929,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3941,10 +3941,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3953,10 +3953,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4157,7 +4157,7 @@
         <v>540</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>536</v>
@@ -4223,7 +4223,7 @@
         <v>547</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>141</v>
@@ -4238,7 +4238,7 @@
         <v>540</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>536</v>
@@ -4252,7 +4252,7 @@
         <v>549</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>142</v>
@@ -4267,7 +4267,7 @@
         <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>536</v>
@@ -4281,7 +4281,7 @@
         <v>569</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
@@ -4296,7 +4296,7 @@
         <v>540</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>536</v>
@@ -4310,7 +4310,7 @@
         <v>570</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>206</v>
@@ -4325,7 +4325,7 @@
         <v>540</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>536</v>
@@ -4339,22 +4339,22 @@
         <v>571</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>561</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>536</v>
@@ -4365,7 +4365,7 @@
         <v>572</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
@@ -4380,13 +4380,13 @@
         <v>540</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>536</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4394,22 +4394,22 @@
         <v>573</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>562</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>536</v>
@@ -4420,7 +4420,7 @@
         <v>574</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
@@ -4435,13 +4435,13 @@
         <v>540</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>536</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4449,22 +4449,22 @@
         <v>575</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>563</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>536</v>
@@ -4475,7 +4475,7 @@
         <v>576</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
@@ -4490,13 +4490,13 @@
         <v>540</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>536</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4504,22 +4504,22 @@
         <v>577</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>536</v>
@@ -4531,7 +4531,7 @@
         <v>578</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>154</v>
@@ -4546,13 +4546,13 @@
         <v>540</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>536</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -4560,7 +4560,7 @@
         <v>579</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>155</v>
@@ -4569,13 +4569,13 @@
         <v>548</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>540</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>536</v>
@@ -4589,19 +4589,19 @@
         <v>580</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>546</v>
@@ -4613,19 +4613,19 @@
         <v>581</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>546</v>
@@ -4633,50 +4633,50 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>536</v>
@@ -4685,57 +4685,57 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>548</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4773,10 +4773,10 @@
         <v>498</v>
       </c>
       <c r="D1" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4804,18 +4804,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4850,10 +4850,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" t="s">
         <v>634</v>
-      </c>
-      <c r="C14" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4913,10 +4913,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4951,39 +4951,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C34" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C35" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C36" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C37" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -5037,167 +5037,167 @@
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>775</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D2" t="s">
         <v>779</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>780</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="49" t="s">
         <v>781</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>782</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>783</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="I2" t="s">
         <v>784</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>785</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>786</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>787</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>788</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>789</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>790</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>791</v>
-      </c>
-      <c r="N2" t="s">
-        <v>792</v>
-      </c>
-      <c r="O2" t="s">
-        <v>793</v>
-      </c>
-      <c r="P2" t="s">
-        <v>794</v>
       </c>
       <c r="Q2" t="s">
         <v>519</v>
       </c>
       <c r="R2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" t="s">
+        <v>779</v>
+      </c>
+      <c r="E3" t="s">
         <v>797</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>781</v>
+      </c>
+      <c r="G3" t="s">
+        <v>782</v>
+      </c>
+      <c r="H3" t="s">
         <v>798</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J3" t="s">
         <v>799</v>
       </c>
-      <c r="D3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>800</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="G3" t="s">
-        <v>785</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>801</v>
       </c>
-      <c r="I3" t="s">
-        <v>787</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>788</v>
+      </c>
+      <c r="N3" t="s">
+        <v>789</v>
+      </c>
+      <c r="O3" t="s">
+        <v>790</v>
+      </c>
+      <c r="P3" t="s">
         <v>802</v>
-      </c>
-      <c r="K3" t="s">
-        <v>803</v>
-      </c>
-      <c r="L3" t="s">
-        <v>804</v>
-      </c>
-      <c r="M3" t="s">
-        <v>791</v>
-      </c>
-      <c r="N3" t="s">
-        <v>792</v>
-      </c>
-      <c r="O3" t="s">
-        <v>793</v>
-      </c>
-      <c r="P3" t="s">
-        <v>805</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
       </c>
       <c r="R3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -5239,13 +5239,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,13 +5253,13 @@
         <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5290,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5302,13 +5302,13 @@
         <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5316,13 +5316,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5331,7 +5331,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5368,34 +5368,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5408,11 +5408,11 @@
         <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>47</v>
@@ -5454,10 +5454,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>47</v>
@@ -5516,11 +5516,11 @@
         <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>48</v>
@@ -5869,25 +5869,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -5951,7 +5951,7 @@
         <v>521</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -5993,10 +5993,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>630</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>95</v>
@@ -6028,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6157,7 +6157,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6177,7 +6177,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6197,7 +6197,7 @@
         <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6357,7 +6357,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>180</v>
@@ -6371,7 +6371,7 @@
         <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>186</v>
@@ -6385,7 +6385,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>188</v>
@@ -6399,7 +6399,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>190</v>
@@ -6443,64 +6443,64 @@
         <v>498</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>590</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>591</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" t="s">
         <v>592</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>593</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>594</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>595</v>
       </c>
-      <c r="F2" t="s">
-        <v>596</v>
-      </c>
       <c r="G2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" t="s">
         <v>595</v>
       </c>
-      <c r="F3" t="s">
-        <v>596</v>
-      </c>
       <c r="G3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F4" t="s">
         <v>595</v>
-      </c>
-      <c r="F4" t="s">
-        <v>596</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -6508,22 +6508,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B5" t="s">
         <v>690</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>691</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>692</v>
-      </c>
-      <c r="D5" t="s">
-        <v>693</v>
       </c>
       <c r="E5" t="s">
         <v>567</v>
       </c>
       <c r="F5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G5" t="s">
         <v>498</v>
@@ -6538,7 +6538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
@@ -6573,7 +6573,7 @@
         <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6686,7 +6686,7 @@
         <v>249</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6698,7 +6698,7 @@
         <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6755,7 +6755,7 @@
         <v>263</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6776,7 +6776,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6818,7 +6818,7 @@
         <v>275</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7905,7 +7905,7 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7954,120 +7954,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>816</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8099,7 +8099,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>115</v>
@@ -8159,16 +8159,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8180,8 +8180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8218,7 +8218,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>584</v>
       </c>
@@ -8232,30 +8232,30 @@
         <v>587</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>584</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>698</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>699</v>
+        <v>820</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8263,36 +8263,36 @@
         <v>584</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>702</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>703</v>
+        <v>821</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="D5" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>712</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -8331,10 +8331,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8454,7 +8454,7 @@
         <v>215</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>133</v>
@@ -8468,7 +8468,7 @@
         <v>215</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -8482,7 +8482,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>133</v>
@@ -8567,31 +8567,31 @@
         <v>561</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>563</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>564</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>565</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8664,10 +8664,10 @@
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>566</v>
@@ -8685,25 +8685,25 @@
         <v>206</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>154</v>
@@ -8792,31 +8792,31 @@
         <v>561</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>562</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>563</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>564</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>565</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>568</v>
@@ -9173,7 +9173,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9228,7 +9228,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9613,10 +9613,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10060,7 +10060,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10169,7 +10169,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10281,7 +10281,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -11075,13 +11075,13 @@
         <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -11089,7 +11089,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11103,13 +11103,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>498</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11129,7 +11129,7 @@
         <v>552</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -11791,6 +11791,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11799,15 +11808,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12012,6 +12012,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12024,14 +12032,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D50480-A7C4-E149-B67B-6C719DA1567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9940886-935A-EC45-853C-8214E86A9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="4" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51460" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="6" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="821">
   <si>
     <t>Screening</t>
   </si>
@@ -2424,18 +2424,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -2475,12 +2469,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2548,6 +2536,15 @@
   </si>
   <si>
     <t>&lt;usdm:tag name="Activity1"/&gt; score of 10 to 23</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2786,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4709,7 +4706,7 @@
         <v>743</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4995,8 +4992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5096,108 +5093,108 @@
         <v>779</v>
       </c>
       <c r="E2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" t="s">
         <v>781</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I2" t="s">
         <v>782</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>783</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>784</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>785</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>786</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>787</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>788</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>789</v>
-      </c>
-      <c r="O2" t="s">
-        <v>790</v>
-      </c>
-      <c r="P2" t="s">
-        <v>791</v>
       </c>
       <c r="Q2" t="s">
         <v>519</v>
       </c>
       <c r="R2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C3" t="s">
         <v>794</v>
-      </c>
-      <c r="B3" t="s">
-        <v>795</v>
-      </c>
-      <c r="C3" t="s">
-        <v>796</v>
       </c>
       <c r="D3" t="s">
         <v>779</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="G3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L3" t="s">
         <v>797</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>781</v>
-      </c>
-      <c r="G3" t="s">
-        <v>782</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>786</v>
+      </c>
+      <c r="N3" t="s">
+        <v>787</v>
+      </c>
+      <c r="O3" t="s">
+        <v>788</v>
+      </c>
+      <c r="P3" t="s">
         <v>798</v>
-      </c>
-      <c r="I3" t="s">
-        <v>784</v>
-      </c>
-      <c r="J3" t="s">
-        <v>799</v>
-      </c>
-      <c r="K3" t="s">
-        <v>800</v>
-      </c>
-      <c r="L3" t="s">
-        <v>801</v>
-      </c>
-      <c r="M3" t="s">
-        <v>788</v>
-      </c>
-      <c r="N3" t="s">
-        <v>789</v>
-      </c>
-      <c r="O3" t="s">
-        <v>790</v>
-      </c>
-      <c r="P3" t="s">
-        <v>802</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
       </c>
       <c r="R3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5287,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>223</v>
@@ -5302,13 +5299,13 @@
         <v>498</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>805</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>809</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5316,13 +5313,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>595</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5331,7 +5328,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -6452,7 +6449,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6475,7 +6472,7 @@
         <v>595</v>
       </c>
       <c r="G2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6489,7 +6486,7 @@
         <v>595</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6573,7 +6570,7 @@
         <v>496</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6649,7 +6646,7 @@
         <v>493</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6776,7 +6773,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6788,7 +6785,7 @@
         <v>269</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7954,120 +7951,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>813</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="52" t="s">
+        <v>809</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>710</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8159,16 +8156,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8180,7 +8177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8232,7 +8229,7 @@
         <v>587</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>588</v>
@@ -8252,7 +8249,7 @@
         <v>697</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>588</v>
@@ -8272,7 +8269,7 @@
         <v>700</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>689</v>
@@ -11791,15 +11788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11808,6 +11796,15 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12012,14 +12009,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12032,6 +12021,14 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9940886-935A-EC45-853C-8214E86A9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E1977-EB93-7042-92AB-5646713D317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51460" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="6" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51460" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -202,12 +202,6 @@
     <t>Primary Endpoint</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Secondary Endpoint</t>
   </si>
   <si>
@@ -2545,6 +2539,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2786,10 +2786,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2809,9 +2809,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2849,7 +2849,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2955,7 +2955,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3097,7 +3097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3124,10 +3124,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3137,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3147,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3167,74 +3167,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -3242,20 +3242,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -3266,71 +3266,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="C17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" t="s">
         <v>501</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>502</v>
-      </c>
-      <c r="D17" t="s">
-        <v>503</v>
-      </c>
-      <c r="E17" t="s">
-        <v>504</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="C18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" t="s">
         <v>505</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>506</v>
-      </c>
-      <c r="D18" t="s">
-        <v>507</v>
-      </c>
-      <c r="E18" t="s">
-        <v>508</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3358,24 +3358,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3386,16 +3386,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3405,38 +3405,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3447,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3463,10 +3463,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3517,7 +3517,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3527,7 +3527,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3537,7 +3537,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3547,7 +3547,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3559,7 +3559,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3569,7 +3569,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3579,7 +3579,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3589,7 +3589,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3599,10 +3599,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3785,33 +3785,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3820,25 +3820,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3848,56 +3848,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3908,16 +3908,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3926,10 +3926,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3938,10 +3938,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3950,10 +3950,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -4107,632 +4107,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>529</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>714</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4761,19 +4761,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4801,18 +4801,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4827,40 +4827,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4870,12 +4870,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4895,50 +4895,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4948,39 +4948,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C34" t="s">
         <v>733</v>
-      </c>
-      <c r="C34" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C35" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C36" t="s">
         <v>734</v>
-      </c>
-      <c r="C36" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C37" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +4992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1E597-6B00-4D42-8763-920CC15BFDAD}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -5022,179 +5022,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>773</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>774</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2" t="s">
         <v>776</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>777</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>778</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>779</v>
       </c>
-      <c r="E2" t="s">
-        <v>818</v>
-      </c>
-      <c r="F2" s="49" t="s">
+      <c r="H2" t="s">
+        <v>817</v>
+      </c>
+      <c r="I2" t="s">
         <v>780</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>781</v>
       </c>
-      <c r="H2" t="s">
-        <v>819</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>782</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>783</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>784</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>785</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>786</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>787</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>517</v>
+      </c>
+      <c r="R2" t="s">
         <v>788</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="50" t="s">
         <v>789</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>519</v>
-      </c>
-      <c r="R2" t="s">
-        <v>790</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C3" t="s">
         <v>792</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="G3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H3" t="s">
+        <v>818</v>
+      </c>
+      <c r="I3" t="s">
+        <v>780</v>
+      </c>
+      <c r="J3" t="s">
         <v>793</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>794</v>
       </c>
-      <c r="D3" t="s">
-        <v>779</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="G3" t="s">
-        <v>781</v>
-      </c>
-      <c r="H3" t="s">
-        <v>820</v>
-      </c>
-      <c r="I3" t="s">
-        <v>782</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>795</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>784</v>
+      </c>
+      <c r="N3" t="s">
+        <v>785</v>
+      </c>
+      <c r="O3" t="s">
+        <v>786</v>
+      </c>
+      <c r="P3" t="s">
         <v>796</v>
       </c>
-      <c r="L3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M3" t="s">
-        <v>786</v>
-      </c>
-      <c r="N3" t="s">
-        <v>787</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>517</v>
+      </c>
+      <c r="R3" t="s">
         <v>788</v>
       </c>
-      <c r="P3" t="s">
-        <v>798</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>519</v>
-      </c>
-      <c r="R3" t="s">
-        <v>790</v>
-      </c>
       <c r="S3" s="50" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -5219,13 +5219,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -5233,30 +5233,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="C2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="C3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -5287,25 +5287,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>40</v>
@@ -5313,13 +5313,13 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -5328,7 +5328,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -5344,8 +5344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5365,34 +5365,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>601</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>602</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>45</v>
@@ -5402,24 +5402,24 @@
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>47</v>
+        <v>819</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
@@ -5432,11 +5432,11 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
@@ -5448,19 +5448,19 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
@@ -5476,10 +5476,10 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
@@ -5492,13 +5492,13 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
@@ -5510,28 +5510,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>820</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5539,15 +5539,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5555,14 +5555,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -5772,28 +5772,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5824,67 +5824,67 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -5913,22 +5913,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>515</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5936,19 +5936,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>521</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -5978,286 +5978,286 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6286,27 +6286,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6315,94 +6315,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6431,73 +6431,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
         <v>591</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>592</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>593</v>
       </c>
-      <c r="E2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F2" t="s">
-        <v>595</v>
-      </c>
       <c r="G2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" t="s">
         <v>689</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>690</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" t="s">
         <v>691</v>
       </c>
-      <c r="D5" t="s">
-        <v>692</v>
-      </c>
-      <c r="E5" t="s">
-        <v>567</v>
-      </c>
-      <c r="F5" t="s">
-        <v>693</v>
-      </c>
       <c r="G5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -6549,1251 +6549,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7815,34 +7815,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7890,36 +7890,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" t="s">
         <v>522</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>523</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>524</v>
-      </c>
-      <c r="D3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7949,122 +7949,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+        <v>120</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+        <v>122</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>809</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="51" t="s">
+        <v>807</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>681</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>710</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8076,96 +8076,96 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8194,102 +8194,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>586</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>815</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>697</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>700</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>704</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>705</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -8316,82 +8316,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8417,13 +8417,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8431,72 +8431,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -8534,69 +8534,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>624</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -8652,61 +8652,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -8716,121 +8716,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>626</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8839,101 +8839,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -9060,7 +9060,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -9170,7 +9170,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -9225,7 +9225,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9390,7 +9390,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -9445,7 +9445,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -9500,7 +9500,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -9555,7 +9555,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -9610,10 +9610,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9667,7 +9667,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -9722,7 +9722,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -9832,7 +9832,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -9887,10 +9887,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10111,7 +10111,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -10166,7 +10166,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -10221,10 +10221,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10278,7 +10278,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10333,7 +10333,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -10390,7 +10390,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -10445,7 +10445,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -10500,7 +10500,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -10555,7 +10555,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -11069,24 +11069,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -11097,16 +11097,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -11116,38 +11116,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -11158,7 +11158,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11167,7 +11167,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -11788,6 +11788,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11796,15 +11805,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12009,6 +12009,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12021,14 +12029,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE246B42-4536-6F4B-9CB3-8EB3AA8B3F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA7815-9D50-AB49-81E9-95E5FB933796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51960" yWindow="500" windowWidth="48700" windowHeight="27220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51960" yWindow="500" windowWidth="48700" windowHeight="27220" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1635,13 +1635,7 @@
     <t>StudyDesignPopulation</t>
   </si>
   <si>
-    <t>@plannedAge/Range/@minValue</t>
-  </si>
-  <si>
     <t>max_age</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range/@maxValue</t>
   </si>
   <si>
     <t>StudyPopulation</t>
@@ -3332,6 +3326,12 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@minValue/Quantity/@value</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@maxValue/Quantity/@value</t>
   </si>
 </sst>
 </file>
@@ -7483,8 +7483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7494,7 +7494,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="64.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7539,13 +7539,13 @@
       <c r="F2" t="s">
         <v>410</v>
       </c>
-      <c r="G2" t="s">
-        <v>529</v>
+      <c r="G2" s="8" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E3" t="s">
         <v>528</v>
@@ -7553,13 +7553,13 @@
       <c r="F3" t="s">
         <v>410</v>
       </c>
-      <c r="G3" t="s">
-        <v>531</v>
+      <c r="G3" s="8" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E4" t="s">
         <v>528</v>
@@ -7576,13 +7576,13 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" t="s">
         <v>533</v>
-      </c>
-      <c r="C5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" t="s">
-        <v>535</v>
       </c>
       <c r="E5" t="s">
         <v>177</v>
@@ -7612,34 +7612,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
         <v>536</v>
-      </c>
-      <c r="B2" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7674,689 +7674,689 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="38" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="38" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="38" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="38" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="38" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="38" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="38" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="38" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="38" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="38" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -8388,124 +8388,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="37" t="s">
         <v>684</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>685</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="D2" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>690</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>693</v>
-      </c>
       <c r="E3" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>696</v>
-      </c>
       <c r="E4" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>699</v>
-      </c>
       <c r="E5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>702</v>
-      </c>
       <c r="E6" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -8514,2533 +8514,2533 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>707</v>
-      </c>
       <c r="E8" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>710</v>
-      </c>
       <c r="E9" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>713</v>
-      </c>
       <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>715</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>716</v>
-      </c>
       <c r="E11" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>719</v>
-      </c>
       <c r="E12" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>722</v>
-      </c>
       <c r="E13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>725</v>
-      </c>
       <c r="E14" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>724</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>731</v>
-      </c>
       <c r="E16" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>730</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>734</v>
-      </c>
       <c r="E17" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>733</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>737</v>
-      </c>
       <c r="E18" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>740</v>
-      </c>
       <c r="E19" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>739</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>743</v>
-      </c>
       <c r="E20" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>746</v>
-      </c>
       <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>745</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>749</v>
-      </c>
       <c r="E22" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>748</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>752</v>
-      </c>
       <c r="E23" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>751</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="E24" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>754</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>757</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>758</v>
-      </c>
       <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>757</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>761</v>
-      </c>
       <c r="E26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>760</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>764</v>
-      </c>
       <c r="E27" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>763</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>766</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>767</v>
-      </c>
       <c r="E28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>769</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>770</v>
-      </c>
       <c r="E29" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>773</v>
-      </c>
       <c r="E30" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>772</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>775</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>776</v>
-      </c>
       <c r="E31" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>775</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>779</v>
-      </c>
       <c r="E32" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>778</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>782</v>
-      </c>
       <c r="E33" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>781</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>785</v>
-      </c>
       <c r="E34" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>784</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>788</v>
-      </c>
       <c r="E35" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>787</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>791</v>
-      </c>
       <c r="E36" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>790</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>794</v>
-      </c>
       <c r="E37" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>793</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>796</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>797</v>
-      </c>
       <c r="E38" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>796</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>800</v>
-      </c>
       <c r="E39" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>799</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>802</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>803</v>
-      </c>
       <c r="E40" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>802</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>806</v>
-      </c>
       <c r="E41" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>805</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>809</v>
-      </c>
       <c r="E42" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>808</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>811</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>812</v>
-      </c>
       <c r="E43" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>811</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>815</v>
-      </c>
       <c r="E44" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>814</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>818</v>
-      </c>
       <c r="E45" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>817</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>821</v>
-      </c>
       <c r="E46" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>820</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>824</v>
-      </c>
       <c r="E47" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>823</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>827</v>
-      </c>
       <c r="E48" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>826</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>830</v>
-      </c>
       <c r="E49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>829</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>833</v>
-      </c>
       <c r="E50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>832</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>836</v>
-      </c>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>835</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>839</v>
-      </c>
       <c r="E52" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>838</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>842</v>
-      </c>
       <c r="E53" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>841</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>845</v>
-      </c>
       <c r="E54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>844</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>848</v>
-      </c>
       <c r="E55" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>847</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>851</v>
-      </c>
       <c r="E56" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>850</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>854</v>
-      </c>
       <c r="E57" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>853</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>857</v>
-      </c>
       <c r="E58" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>856</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>860</v>
-      </c>
       <c r="E59" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>859</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>863</v>
-      </c>
       <c r="E60" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>862</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>866</v>
-      </c>
       <c r="E61" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>865</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>869</v>
-      </c>
       <c r="E62" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>868</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>872</v>
-      </c>
       <c r="E63" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>871</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>875</v>
-      </c>
       <c r="E64" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>874</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>878</v>
-      </c>
       <c r="E65" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>877</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>881</v>
-      </c>
       <c r="E66" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>880</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>884</v>
-      </c>
       <c r="E67" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>883</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>887</v>
-      </c>
       <c r="E68" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>886</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>890</v>
-      </c>
       <c r="E69" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>889</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>892</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>893</v>
-      </c>
       <c r="E70" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>892</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>896</v>
-      </c>
       <c r="E71" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>895</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>899</v>
-      </c>
       <c r="E72" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>898</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>902</v>
-      </c>
       <c r="E73" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>901</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>905</v>
-      </c>
       <c r="E74" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>904</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>908</v>
-      </c>
       <c r="E75" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>907</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>911</v>
-      </c>
       <c r="E76" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>910</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>914</v>
-      </c>
       <c r="E77" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>913</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>917</v>
-      </c>
       <c r="E78" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>916</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>920</v>
-      </c>
       <c r="E79" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>919</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>923</v>
-      </c>
       <c r="E80" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>922</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>926</v>
-      </c>
       <c r="E81" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>925</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>928</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>929</v>
-      </c>
       <c r="E82" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>928</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>932</v>
-      </c>
       <c r="E83" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>931</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>935</v>
-      </c>
       <c r="E84" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>934</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>938</v>
-      </c>
       <c r="E85" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>937</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>941</v>
-      </c>
       <c r="E86" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>940</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>944</v>
-      </c>
       <c r="E87" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>943</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>947</v>
-      </c>
       <c r="E88" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>946</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>950</v>
-      </c>
       <c r="E89" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>949</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>953</v>
-      </c>
       <c r="E90" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>952</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>956</v>
-      </c>
       <c r="E91" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>957</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>961</v>
-      </c>
       <c r="E93" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>960</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>964</v>
-      </c>
       <c r="E94" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>963</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>966</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>967</v>
-      </c>
       <c r="E95" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>966</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>970</v>
-      </c>
       <c r="E96" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>969</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>973</v>
-      </c>
       <c r="E97" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>972</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>976</v>
-      </c>
       <c r="E98" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>975</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>978</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>979</v>
-      </c>
       <c r="E99" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>978</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>981</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>982</v>
-      </c>
       <c r="E100" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>981</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="B101" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>985</v>
-      </c>
       <c r="E101" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>984</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>988</v>
-      </c>
       <c r="E102" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>987</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>991</v>
-      </c>
       <c r="E103" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>990</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>994</v>
-      </c>
       <c r="E104" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>993</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>996</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>997</v>
-      </c>
       <c r="E105" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>996</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>999</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>1000</v>
-      </c>
       <c r="E106" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>999</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1003</v>
-      </c>
       <c r="E107" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="B108" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1006</v>
-      </c>
       <c r="E108" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1009</v>
-      </c>
       <c r="E109" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1012</v>
-      </c>
       <c r="E110" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1015</v>
-      </c>
       <c r="E111" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1018</v>
-      </c>
       <c r="E112" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>1021</v>
-      </c>
       <c r="E113" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1024</v>
-      </c>
       <c r="E114" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>1027</v>
-      </c>
       <c r="E115" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>1030</v>
-      </c>
       <c r="E116" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="B117" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>1033</v>
-      </c>
       <c r="E117" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>1036</v>
-      </c>
       <c r="E118" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>1039</v>
-      </c>
       <c r="E119" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1042</v>
-      </c>
       <c r="E120" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="B121" s="13" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>1045</v>
-      </c>
       <c r="E121" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>1048</v>
-      </c>
       <c r="E122" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>1049</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>1051</v>
-      </c>
       <c r="E123" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="B124" s="13" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>1054</v>
-      </c>
       <c r="E124" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1057</v>
-      </c>
       <c r="E125" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="B126" s="13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1060</v>
-      </c>
       <c r="E126" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1063</v>
-      </c>
       <c r="E127" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="B128" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1066</v>
-      </c>
       <c r="E128" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="B129" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1069</v>
-      </c>
       <c r="E129" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>1072</v>
-      </c>
       <c r="E130" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="B131" s="13" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1075</v>
-      </c>
       <c r="E131" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>1078</v>
-      </c>
       <c r="E132" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1079</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1081</v>
-      </c>
       <c r="E133" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -11069,7 +11069,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>97</v>
@@ -11084,7 +11084,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11095,7 +11095,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -11153,7 +11153,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11161,7 +11161,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -11185,7 +11185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A13" sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>75</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA7815-9D50-AB49-81E9-95E5FB933796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A211E1-5441-0742-86C8-E9F4464F55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51960" yWindow="500" windowWidth="48700" windowHeight="27220" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51960" yWindow="500" windowWidth="48700" windowHeight="27220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="1089">
   <si>
     <t>name</t>
   </si>
@@ -3332,6 +3332,9 @@
   </si>
   <si>
     <t>@plannedAge/Range/@maxValue/Quantity/@value</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
   </si>
 </sst>
 </file>
@@ -6873,59 +6876,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7483,7 +7500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/full_2.xlsx
+++ b/tests/integration_test_files/full_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A211E1-5441-0742-86C8-E9F4464F55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A6E7A-6105-844E-8C4B-3570C7CDFCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51960" yWindow="500" windowWidth="48700" windowHeight="27220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1331,9 +1331,6 @@
     <t>To determine if there is a statistically significant relationship (overall Type 1 erroralpha=0.05) between the change in both the ADAS-Cog (11) and CIBIC+ scores, and drug dose (0, 50 cm2 [54 mg], and 75 cm2 [81 mg]).</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>END1</t>
   </si>
   <si>
@@ -1384,9 +1381,6 @@
   <si>
     <t>To assess the dose-dependent improvement in behavior. Improved scores on the Revised Neuropsychiatric Inventory (NPI-X) will indicate improvement in these
 areas.</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
   </si>
   <si>
     <t>END6</t>
@@ -3335,6 +3329,12 @@
   </si>
   <si>
     <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -6416,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6484,18 +6484,18 @@
         <v>427</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>428</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>429</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -6504,15 +6504,15 @@
     <row r="3" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="15"/>
       <c r="F3" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -6520,26 +6520,26 @@
     </row>
     <row r="4" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>436</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>437</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>240</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -6548,14 +6548,14 @@
     <row r="5" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="15"/>
       <c r="F5" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>438</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>439</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -6564,17 +6564,17 @@
     <row r="6" spans="1:15" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="15"/>
       <c r="F6" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>441</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>442</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -6582,28 +6582,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>443</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>444</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>445</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>447</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -6611,15 +6611,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -6627,14 +6627,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -6844,28 +6844,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -6878,7 +6878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -6982,58 +6982,58 @@
         <v>26</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="G1" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>468</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7076,16 +7076,16 @@
         <v>27</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>476</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7093,25 +7093,25 @@
         <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7119,22 +7119,22 @@
         <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7142,25 +7142,25 @@
         <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -7168,19 +7168,19 @@
         <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -7188,19 +7188,19 @@
         <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7208,19 +7208,19 @@
         <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -7228,19 +7228,19 @@
         <v>190</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -7248,19 +7248,19 @@
         <v>191</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7268,19 +7268,19 @@
         <v>192</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7288,19 +7288,19 @@
         <v>193</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -7308,19 +7308,19 @@
         <v>194</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7328,22 +7328,22 @@
         <v>195</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>483</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7380,10 +7380,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>82</v>
@@ -7400,21 +7400,21 @@
         <v>199</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7422,13 +7422,13 @@
         <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7436,13 +7436,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7450,13 +7450,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>513</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>514</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7464,13 +7464,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7478,16 +7478,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="46" t="s">
         <v>519</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>520</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7525,16 +7525,16 @@
         <v>26</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7542,44 +7542,44 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
         <v>525</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>526</v>
-      </c>
-      <c r="D2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
       </c>
       <c r="F2" t="s">
         <v>410</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F3" t="s">
         <v>410</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F4" t="s">
         <v>410</v>
@@ -7593,13 +7593,13 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" t="s">
         <v>531</v>
-      </c>
-      <c r="C5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D5" t="s">
-        <v>533</v>
       </c>
       <c r="E5" t="s">
         <v>177</v>
@@ -7629,34 +7629,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" t="s">
         <v>534</v>
-      </c>
-      <c r="B2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -7691,689 +7691,689 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="38" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="38" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="38" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="38" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="38" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="38" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="38" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="38" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="38" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="38" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -8405,124 +8405,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>681</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="37" t="s">
         <v>682</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>683</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="D2" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>688</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="E3" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="E4" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>697</v>
-      </c>
       <c r="E5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>700</v>
-      </c>
       <c r="E6" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -8531,2533 +8531,2533 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>705</v>
-      </c>
       <c r="E8" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>708</v>
-      </c>
       <c r="E9" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>711</v>
-      </c>
       <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>713</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>714</v>
-      </c>
       <c r="E11" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>717</v>
-      </c>
       <c r="E12" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>716</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>720</v>
-      </c>
       <c r="E13" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>719</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>723</v>
-      </c>
       <c r="E14" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>726</v>
-      </c>
       <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>725</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>729</v>
-      </c>
       <c r="E16" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>732</v>
-      </c>
       <c r="E17" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>731</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>735</v>
-      </c>
       <c r="E18" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>734</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>738</v>
-      </c>
       <c r="E19" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>741</v>
-      </c>
       <c r="E20" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>740</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="E22" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>746</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>749</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>750</v>
-      </c>
       <c r="E23" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>749</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>752</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="E24" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>755</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>756</v>
-      </c>
       <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>755</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>759</v>
-      </c>
       <c r="E26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>758</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>762</v>
-      </c>
       <c r="E27" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>761</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>764</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="E28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>764</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>768</v>
-      </c>
       <c r="E29" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>767</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="E30" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>770</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="E31" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>773</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="E32" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>776</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="E33" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>779</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="E34" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>782</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>786</v>
-      </c>
       <c r="E35" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>785</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>789</v>
-      </c>
       <c r="E36" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>788</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="E37" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>791</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>795</v>
-      </c>
       <c r="E38" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>794</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>798</v>
-      </c>
       <c r="E39" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>797</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>800</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="E40" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>800</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>804</v>
-      </c>
       <c r="E41" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>803</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>807</v>
-      </c>
       <c r="E42" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>806</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>809</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>810</v>
-      </c>
       <c r="E43" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>809</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="E44" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>812</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>816</v>
-      </c>
       <c r="E45" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>815</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>818</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>819</v>
-      </c>
       <c r="E46" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>818</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>821</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>822</v>
-      </c>
       <c r="E47" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>825</v>
-      </c>
       <c r="E48" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>824</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>828</v>
-      </c>
       <c r="E49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>827</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>831</v>
-      </c>
       <c r="E50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>830</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>834</v>
-      </c>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>833</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>837</v>
-      </c>
       <c r="E52" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>836</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>840</v>
-      </c>
       <c r="E53" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>839</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>843</v>
-      </c>
       <c r="E54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>842</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>846</v>
-      </c>
       <c r="E55" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>845</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>849</v>
-      </c>
       <c r="E56" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>848</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>852</v>
-      </c>
       <c r="E57" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>851</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>855</v>
-      </c>
       <c r="E58" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>854</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>858</v>
-      </c>
       <c r="E59" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>857</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>861</v>
-      </c>
       <c r="E60" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>860</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>864</v>
-      </c>
       <c r="E61" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>863</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>867</v>
-      </c>
       <c r="E62" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>866</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>870</v>
-      </c>
       <c r="E63" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>869</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>873</v>
-      </c>
       <c r="E64" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>872</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>876</v>
-      </c>
       <c r="E65" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>875</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>879</v>
-      </c>
       <c r="E66" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>878</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>882</v>
-      </c>
       <c r="E67" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>881</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>885</v>
-      </c>
       <c r="E68" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>884</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>888</v>
-      </c>
       <c r="E69" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>887</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>891</v>
-      </c>
       <c r="E70" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>890</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="E71" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>893</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>897</v>
-      </c>
       <c r="E72" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>896</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>900</v>
-      </c>
       <c r="E73" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>899</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>903</v>
-      </c>
       <c r="E74" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>902</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>906</v>
-      </c>
       <c r="E75" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>905</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>908</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>909</v>
-      </c>
       <c r="E76" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>908</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>912</v>
-      </c>
       <c r="E77" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>911</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>915</v>
-      </c>
       <c r="E78" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>914</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>918</v>
-      </c>
       <c r="E79" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>917</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>921</v>
-      </c>
       <c r="E80" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>920</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>924</v>
-      </c>
       <c r="E81" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>923</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>926</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>927</v>
-      </c>
       <c r="E82" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>926</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>930</v>
-      </c>
       <c r="E83" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>929</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>933</v>
-      </c>
       <c r="E84" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>932</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>935</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>936</v>
-      </c>
       <c r="E85" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>935</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>939</v>
-      </c>
       <c r="E86" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>938</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>942</v>
-      </c>
       <c r="E87" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>941</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>945</v>
-      </c>
       <c r="E88" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>944</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>948</v>
-      </c>
       <c r="E89" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>947</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>951</v>
-      </c>
       <c r="E90" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>950</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>954</v>
-      </c>
       <c r="E91" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>955</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>958</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>959</v>
-      </c>
       <c r="E93" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>958</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>961</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>962</v>
-      </c>
       <c r="E94" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>961</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>964</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>965</v>
-      </c>
       <c r="E95" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>964</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>967</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>968</v>
-      </c>
       <c r="E96" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>967</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>970</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>971</v>
-      </c>
       <c r="E97" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>970</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>973</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>974</v>
-      </c>
       <c r="E98" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>973</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>974</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>977</v>
-      </c>
       <c r="E99" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>976</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>979</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>980</v>
-      </c>
       <c r="E100" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>979</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="B101" s="13" t="s">
-        <v>982</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>983</v>
-      </c>
       <c r="E101" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>982</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>986</v>
-      </c>
       <c r="E102" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>985</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>988</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>989</v>
-      </c>
       <c r="E103" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>988</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>992</v>
-      </c>
       <c r="E104" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>991</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>994</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>995</v>
-      </c>
       <c r="E105" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>994</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>998</v>
-      </c>
       <c r="E106" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>997</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1001</v>
-      </c>
       <c r="E107" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="B108" s="13" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1004</v>
-      </c>
       <c r="E108" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1007</v>
-      </c>
       <c r="E109" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1010</v>
-      </c>
       <c r="E110" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1013</v>
-      </c>
       <c r="E111" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1016</v>
-      </c>
       <c r="E112" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>1017</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>1019</v>
-      </c>
       <c r="E113" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1022</v>
-      </c>
       <c r="E114" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>1025</v>
-      </c>
       <c r="E115" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>1028</v>
-      </c>
       <c r="E116" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="B117" s="13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>1031</v>
-      </c>
       <c r="E117" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>1034</v>
-      </c>
       <c r="E118" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>1037</v>
-      </c>
       <c r="E119" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="B120" s="13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1040</v>
-      </c>
       <c r="E120" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="B121" s="13" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>1043</v>
-      </c>
       <c r="E121" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>1046</v>
-      </c>
       <c r="E122" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>1049</v>
-      </c>
       <c r="E123" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="B124" s="13" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>1052</v>
-      </c>
       <c r="E124" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1055</v>
-      </c>
       <c r="E125" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="B126" s="13" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1058</v>
-      </c>
       <c r="E126" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1061</v>
-      </c>
       <c r="E127" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="B128" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1064</v>
-      </c>
       <c r="E128" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="B129" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1067</v>
-      </c>
       <c r="E129" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>1070</v>
-      </c>
       <c r="E130" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="B131" s="13" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1073</v>
-      </c>
       <c r="E131" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>1076</v>
-      </c>
       <c r="E132" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1079</v>
-      </c>
       <c r="E133" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -11086,7 +11086,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>97</v>
@@ -11101,7 +11101,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11112,7 +11112,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -11170,7 +11170,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11178,7 +11178,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -11288,7 +11288,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>75</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
